--- a/tnr-auto/CahierDeRecettePilote.xlsx
+++ b/tnr-auto/CahierDeRecettePilote.xlsx
@@ -3,27 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ieb\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F53570B-B399-468D-BAE4-92973578DAE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FA2722F4-7965-4E0F-89C2-4327E5AA0F05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="4365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données Tiers" sheetId="2" r:id="rId1"/>
-    <sheet name="Scénario Tiers" sheetId="1" r:id="rId2"/>
-    <sheet name="Données contrat" sheetId="4" r:id="rId3"/>
-    <sheet name="Résiliation  échéance" sheetId="3" r:id="rId4"/>
+    <sheet name="clotureData" sheetId="5" r:id="rId2"/>
+    <sheet name="Scénario Tiers" sheetId="1" r:id="rId3"/>
+    <sheet name="Données contrat" sheetId="4" r:id="rId4"/>
+    <sheet name="Résiliation  échéance" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="193">
   <si>
     <t>N° scénario</t>
   </si>
@@ -1847,6 +1844,45 @@
   </si>
   <si>
     <t>Le type de document est "Carte d'identité" par défaut (champ grisé) pour les PP résidentes</t>
+  </si>
+  <si>
+    <t>N° Sinistre</t>
+  </si>
+  <si>
+    <t>CDL</t>
+  </si>
+  <si>
+    <t>AUTO IDA</t>
+  </si>
+  <si>
+    <t>AUTO HORS IDA</t>
+  </si>
+  <si>
+    <t>AUTO CORPOREL N</t>
+  </si>
+  <si>
+    <t>000019970505054</t>
+  </si>
+  <si>
+    <t>000019980500820</t>
+  </si>
+  <si>
+    <t>005520130500169</t>
+  </si>
+  <si>
+    <t>005520130500204</t>
+  </si>
+  <si>
+    <t>005520130500223</t>
+  </si>
+  <si>
+    <t>005520130500226</t>
+  </si>
+  <si>
+    <t>005520130500233</t>
+  </si>
+  <si>
+    <t>005520130500244</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2165,6 +2201,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2674,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2850,6 +2887,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABC9C4A-367B-4470-AC70-444A21CD8AD5}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
@@ -2890,19 +3020,19 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2915,8 +3045,8 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
@@ -2927,10 +3057,10 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2943,8 +3073,8 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
@@ -2955,8 +3085,8 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3097,8 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
@@ -2979,8 +3109,8 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
@@ -2991,8 +3121,8 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
@@ -3003,8 +3133,8 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
@@ -3015,8 +3145,8 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
@@ -3027,8 +3157,8 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
@@ -3039,8 +3169,8 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -3051,8 +3181,8 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
@@ -3063,8 +3193,8 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="17" t="s">
         <v>34</v>
       </c>
@@ -3075,8 +3205,8 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
@@ -3087,8 +3217,8 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
@@ -3099,8 +3229,8 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
@@ -3111,8 +3241,8 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
@@ -3123,8 +3253,8 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
@@ -3135,8 +3265,8 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="9" t="s">
         <v>40</v>
       </c>
@@ -3147,8 +3277,8 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3289,8 @@
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="9" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3301,8 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
@@ -3183,8 +3313,8 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3195,10 +3325,10 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -3211,8 +3341,8 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="9" t="s">
         <v>52</v>
       </c>
@@ -3223,8 +3353,8 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="9" t="s">
         <v>53</v>
       </c>
@@ -3235,8 +3365,8 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
@@ -3247,8 +3377,8 @@
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="9" t="s">
         <v>55</v>
       </c>
@@ -3259,8 +3389,8 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="9" t="s">
         <v>56</v>
       </c>
@@ -3271,8 +3401,8 @@
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="18" t="s">
         <v>57</v>
       </c>
@@ -3285,8 +3415,8 @@
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="18" t="s">
         <v>59</v>
       </c>
@@ -3299,8 +3429,8 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="18" t="s">
         <v>60</v>
       </c>
@@ -3313,8 +3443,8 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="18" t="s">
         <v>61</v>
       </c>
@@ -3327,8 +3457,8 @@
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="18" t="s">
         <v>62</v>
       </c>
@@ -3341,8 +3471,8 @@
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
@@ -3355,8 +3485,8 @@
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="18" t="s">
         <v>64</v>
       </c>
@@ -3367,8 +3497,8 @@
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="18" t="s">
         <v>66</v>
       </c>
@@ -3379,8 +3509,8 @@
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="9" t="s">
         <v>67</v>
       </c>
@@ -3391,8 +3521,8 @@
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="9" t="s">
         <v>69</v>
       </c>
@@ -3403,8 +3533,8 @@
       <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="9" t="s">
         <v>70</v>
       </c>
@@ -3415,8 +3545,8 @@
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="9" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3557,8 @@
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="9" t="s">
         <v>72</v>
       </c>
@@ -3439,8 +3569,8 @@
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="9" t="s">
         <v>73</v>
       </c>
@@ -3451,8 +3581,8 @@
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="9" t="s">
         <v>74</v>
       </c>
@@ -3463,8 +3593,8 @@
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="9" t="s">
         <v>75</v>
       </c>
@@ -3475,8 +3605,8 @@
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="9" t="s">
         <v>77</v>
       </c>
@@ -3487,8 +3617,8 @@
       <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="9" t="s">
         <v>78</v>
       </c>
@@ -3499,8 +3629,8 @@
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="9" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3641,8 @@
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="9" t="s">
         <v>80</v>
       </c>
@@ -3523,8 +3653,8 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="9" t="s">
         <v>82</v>
       </c>
@@ -3535,8 +3665,8 @@
       <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="9" t="s">
         <v>84</v>
       </c>
@@ -3547,8 +3677,8 @@
       <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="9" t="s">
         <v>86</v>
       </c>
@@ -3559,8 +3689,8 @@
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="9" t="s">
         <v>87</v>
       </c>
@@ -3571,8 +3701,8 @@
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="9" t="s">
         <v>89</v>
       </c>
@@ -3583,8 +3713,8 @@
       <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="21" t="s">
         <v>90</v>
       </c>
@@ -3595,8 +3725,8 @@
       <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="9" t="s">
         <v>92</v>
       </c>
@@ -3607,8 +3737,8 @@
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="9" t="s">
         <v>93</v>
       </c>
@@ -3619,8 +3749,8 @@
       <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="9" t="s">
         <v>94</v>
       </c>
@@ -3631,8 +3761,8 @@
       <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="9" t="s">
         <v>96</v>
       </c>
@@ -3643,8 +3773,8 @@
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="9" t="s">
         <v>98</v>
       </c>
@@ -3655,8 +3785,8 @@
       <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="9" t="s">
         <v>99</v>
       </c>
@@ -3667,8 +3797,8 @@
       <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="9" t="s">
         <v>100</v>
       </c>
@@ -3679,8 +3809,8 @@
       <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="9" t="s">
         <v>101</v>
       </c>
@@ -3691,8 +3821,8 @@
       <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="9" t="s">
         <v>102</v>
       </c>
@@ -3703,8 +3833,8 @@
       <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="9" t="s">
         <v>103</v>
       </c>
@@ -3715,8 +3845,8 @@
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="9" t="s">
         <v>104</v>
       </c>
@@ -3727,8 +3857,8 @@
       <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="9" t="s">
         <v>105</v>
       </c>
@@ -3739,8 +3869,8 @@
       <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="9" t="s">
         <v>106</v>
       </c>
@@ -3751,8 +3881,8 @@
       <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="9" t="s">
         <v>108</v>
       </c>
@@ -3763,8 +3893,8 @@
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="9" t="s">
         <v>110</v>
       </c>
@@ -3775,8 +3905,8 @@
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="9" t="s">
         <v>112</v>
       </c>
@@ -3785,10 +3915,10 @@
       <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -3801,8 +3931,8 @@
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="9" t="s">
         <v>117</v>
       </c>
@@ -3813,8 +3943,8 @@
       <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="9" t="s">
         <v>119</v>
       </c>
@@ -3825,8 +3955,8 @@
       <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="9" t="s">
         <v>121</v>
       </c>
@@ -3837,8 +3967,8 @@
       <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="9" t="s">
         <v>122</v>
       </c>
@@ -3849,8 +3979,8 @@
       <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="9" t="s">
         <v>123</v>
       </c>
@@ -3861,8 +3991,8 @@
       <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="9" t="s">
         <v>124</v>
       </c>
@@ -3873,8 +4003,8 @@
       <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="9" t="s">
         <v>125</v>
       </c>
@@ -3885,8 +4015,8 @@
       <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="9" t="s">
         <v>126</v>
       </c>
@@ -3897,8 +4027,8 @@
       <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="9" t="s">
         <v>127</v>
       </c>
@@ -3909,8 +4039,8 @@
       <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="9" t="s">
         <v>128</v>
       </c>
@@ -3921,8 +4051,8 @@
       <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="9" t="s">
         <v>129</v>
       </c>
@@ -4061,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C3"/>
   <sheetViews>
@@ -4105,7 +4235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -4123,17 +4253,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>

--- a/tnr-auto/CahierDeRecettePilote.xlsx
+++ b/tnr-auto/CahierDeRecettePilote.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FA2722F4-7965-4E0F-89C2-4327E5AA0F05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ieb\git\furry-robot\tnr-auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD53C69-F9B8-49F3-9003-B39B3A938A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="4365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="4365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données Tiers" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="Résiliation  échéance" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G14"/>
 </workbook>
 </file>
 
@@ -2711,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABC9C4A-367B-4470-AC70-444A21CD8AD5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,7 +2912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>185</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>186</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>187</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>188</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>189</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>190</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>191</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>192</v>
       </c>
@@ -2972,8 +2976,6 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tnr-auto/CahierDeRecettePilote.xlsx
+++ b/tnr-auto/CahierDeRecettePilote.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ieb\git\furry-robot\tnr-auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD53C69-F9B8-49F3-9003-B39B3A938A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AA2A5888-0B5C-4BB8-B68D-4F04F2BCE5B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="4365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +14,8 @@
     <sheet name="Données contrat" sheetId="4" r:id="rId4"/>
     <sheet name="Résiliation  échéance" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:I12"/>
 </workbook>
 </file>
 
